--- a/bots/crawl_ch/output/electronics_2022-08-08.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-08.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -869,50 +869,48 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6762335</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 8 Stück</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-8-stueck/p/6762335</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -922,7 +920,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -937,53 +935,55 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 8 Stück 19.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>6762335</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Duracell Batterien Optimum AA/LR6 8 Stück</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-8-stueck/p/6762335</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24ST</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>8ST</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1008,12 +1008,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AA/LR6 8 Stück 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1737,29 +1737,29 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>6761134</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1798,17 +1798,17 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -1881,48 +1881,50 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6761134</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1932,7 +1934,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1947,34 +1949,34 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1993,7 +1995,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2003,7 +2005,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2013,60 +2015,58 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -2455,36 +2455,36 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>3494133</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>Varta Longlife Power AA 8er Bli</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>8ST</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2493,12 +2493,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2523,41 +2523,41 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3494133</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -2672,50 +2672,48 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3494909</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli</t>
+          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2725,7 +2723,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2735,60 +2733,60 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4905484</t>
+          <t>3494909</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück</t>
+          <t>Varta Electronics V23GA 1er Bli</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.98/1ST</t>
+          <t>3.95/1ST</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2798,7 +2796,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2813,179 +2811,179 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
+          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>4905484</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Alkaline Batterie LR20/D 2 Stück</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2.98/1ST</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3494065</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2.49/1ST</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5683906</t>
+          <t>3494065</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l</t>
+          <t>Varta Longlife Max Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
         <v>5</v>
       </c>
-      <c r="F36" t="n">
-        <v>4</v>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>19.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2995,7 +2993,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3005,39 +3003,39 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6753555</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 4 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-4-stueck/p/6753555</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -3051,12 +3049,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.99/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3066,7 +3064,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3081,53 +3079,55 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 4 Stück 11.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>5683906</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
+          <t>Prix Garantie Wasserkocher 1l</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>19.95/1ST</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3147,60 +3147,58 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
+          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3494138</t>
+          <t>6753555</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
+          <t>Duracell Batterien Optimum AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-4-stueck/p/6753555</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.99/1ST</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3210,7 +3208,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3225,12 +3223,12 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AAA/LR03 4 Stück 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -3283,85 +3281,105 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>3494138</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8ST</t>
+        </is>
+      </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>119.00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.87/1ST</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3370,7 +3388,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>119.00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -3379,160 +3397,160 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4358323</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5751576</t>
+          <t>4358323</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>5751576</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>satrap Toasty 1 Toaster</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -3540,16 +3558,16 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>99.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -3563,105 +3581,87 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
+          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3675,12 +3675,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.98/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3700,85 +3700,105 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>3.98/1ST</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3788,12 +3808,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3802,34 +3822,34 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3839,12 +3859,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3853,88 +3873,68 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>12ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>29.85</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2.49/1ST</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4162,29 +4162,29 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3494231</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4228,34 +4228,34 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>3494231</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Varta Electronics CR2025 1er Bli</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -4269,12 +4269,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4406,31 +4406,27 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
         <v>1</v>
       </c>
@@ -4439,132 +4435,136 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>3.74/1ST</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>149.00</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>3.74/1ST</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 149.00 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -4573,17 +4573,17 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-08 07:04:21</t>
+          <t>2022-08-08 21:00:16</t>
         </is>
       </c>
     </row>
